--- a/19届校招员工岗前培训阶段汇总-二处.xlsx
+++ b/19届校招员工岗前培训阶段汇总-二处.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="2205" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="60">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -280,6 +280,54 @@
   </si>
   <si>
     <t>培训建议或需求</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>linux命令功能很丰富，仍旧需要加强学习。git目前在工作中使用没有障碍。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无免费课</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>之前有一定的c++基础，对c++11/14的新特性学习起来仍旧有一定难度，目前还在加强学习。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解了ceph 的原理，实践了部署，学习了部分ceph和rbd命令。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>共计16日提交</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-3小时</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>池的概念不是很清楚，希望老师可以进一步讲解。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议c++课程添加一些基础课程。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部完成</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -865,10 +913,10 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1298,27 +1346,51 @@
       <c r="C14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="F14" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="G14" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="J14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="17"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
+      <c r="K14" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="N14" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="O14" s="17"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="13"/>
+      <c r="O14" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="P14" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q14" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="R14" s="17" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="15" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">

--- a/19届校招员工岗前培训阶段汇总-二处.xlsx
+++ b/19届校招员工岗前培训阶段汇总-二处.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="4170" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="71">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -329,6 +329,39 @@
   <si>
     <t>全部完成</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>共计18日提交</t>
+  </si>
+  <si>
+    <t>2-3小时</t>
+  </si>
+  <si>
+    <t>Linux &amp; git</t>
+  </si>
+  <si>
+    <t>Linux课程已完成11章待完成6章，git课程已完成2章待完成4章</t>
+  </si>
+  <si>
+    <t>Linux与git的课程没有全部完成，但能够在实际中掌握基本功能的使用。</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>全部完成</t>
+  </si>
+  <si>
+    <t>lambda表达式运用不熟练，写代码时经常不会想到使用lambda表达式；正则表达式的使用不够熟练。</t>
+  </si>
+  <si>
+    <t>Openstack、nova、keystone、neutron、虚拟化</t>
+  </si>
+  <si>
+    <t>无免费课</t>
+  </si>
+  <si>
+    <t>基础概念占学习的主要部分，实验部分较少，较难发现在实际运用知识时会出现哪些问题。</t>
   </si>
 </sst>
 </file>
@@ -913,10 +946,10 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="R14" sqref="R14"/>
+      <selection pane="bottomRight" activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1218,27 +1251,47 @@
       <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="F10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="J10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="17"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
+      <c r="K10" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="N10" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="O10" s="17"/>
+        <v>68</v>
+      </c>
+      <c r="O10" s="17" t="s">
+        <v>69</v>
+      </c>
       <c r="P10" s="13"/>
       <c r="Q10" s="15"/>
-      <c r="R10" s="13"/>
+      <c r="R10" s="13" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="11" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">

--- a/19届校招员工岗前培训阶段汇总-二处.xlsx
+++ b/19届校招员工岗前培训阶段汇总-二处.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="6135" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="79">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -179,10 +179,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>张金生</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>高性能计算组</t>
   </si>
   <si>
@@ -362,6 +358,33 @@
   </si>
   <si>
     <t>基础概念占学习的主要部分，实验部分较少，较难发现在实际运用知识时会出现哪些问题。</t>
+  </si>
+  <si>
+    <t>张金生</t>
+  </si>
+  <si>
+    <t>共计23次提交</t>
+  </si>
+  <si>
+    <t>linux系统适应性还是挺好的，就是一些复杂功能可能需要再复习复习</t>
+  </si>
+  <si>
+    <t>暂无</t>
+  </si>
+  <si>
+    <t>有些章节做得比较快，而且实验楼上的内容也不太详细，还需要找时间再熟悉和强化</t>
+  </si>
+  <si>
+    <t>无免费课，且只看到Openstack的会员课程，其他课程实验楼上并没找到</t>
+  </si>
+  <si>
+    <t>还没有进行相关课程的学习，这几天看一些关于这些课程的介绍，了解一下</t>
+  </si>
+  <si>
+    <t>这些课程在工作方向上的结构层次，以及学习的重点</t>
+  </si>
+  <si>
+    <t>暂时没想到</t>
   </si>
 </sst>
 </file>
@@ -946,10 +969,10 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="U10" sqref="U10"/>
+      <selection pane="bottomRight" activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -982,10 +1005,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2" s="21" t="s">
         <v>1</v>
@@ -1002,7 +1025,7 @@
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
       <c r="R2" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -1015,37 +1038,37 @@
         <v>2</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>3</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N3" s="11" t="s">
         <v>4</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q3" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R3" s="21"/>
     </row>
@@ -1179,45 +1202,69 @@
     </row>
     <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="17"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
+      <c r="K8" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="N8" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="O8" s="17"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="13"/>
+        <v>67</v>
+      </c>
+      <c r="O8" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="R8" s="13" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="9" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1228,13 +1275,13 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K9" s="17"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O9" s="17"/>
       <c r="P9" s="13"/>
@@ -1243,65 +1290,65 @@
     </row>
     <row r="10" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="4" t="s">
+      <c r="K10" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="L10" s="4" t="s">
+      <c r="N10" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="M10" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="N10" s="16" t="s">
+      <c r="O10" s="17" t="s">
         <v>68</v>
-      </c>
-      <c r="O10" s="17" t="s">
-        <v>69</v>
       </c>
       <c r="P10" s="13"/>
       <c r="Q10" s="15"/>
       <c r="R10" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1312,13 +1359,13 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K11" s="17"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O11" s="17"/>
       <c r="P11" s="13"/>
@@ -1327,13 +1374,13 @@
     </row>
     <row r="12" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1359,13 +1406,13 @@
     </row>
     <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1391,69 +1438,69 @@
     </row>
     <row r="14" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>8</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="J14" s="12" t="s">
         <v>12</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M14" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="N14" s="16" t="s">
         <v>15</v>
       </c>
       <c r="O14" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P14" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q14" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="R14" s="17" t="s">
         <v>56</v>
-      </c>
-      <c r="R14" s="17" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1479,13 +1526,13 @@
     </row>
     <row r="16" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -1511,13 +1558,13 @@
     </row>
     <row r="17" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1543,13 +1590,13 @@
     </row>
     <row r="18" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -1560,7 +1607,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K18" s="17"/>
       <c r="L18" s="4"/>
@@ -1575,13 +1622,13 @@
     </row>
     <row r="19" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1592,7 +1639,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K19" s="17"/>
       <c r="L19" s="4"/>

--- a/19届校招员工岗前培训阶段汇总-二处.xlsx
+++ b/19届校招员工岗前培训阶段汇总-二处.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\rd2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19896" windowHeight="8112"/>
+    <workbookView windowWidth="21000" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +22,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0" shapeId="0">
+    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0" shapeId="0">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="76">
   <si>
     <t>姓名</t>
   </si>
@@ -270,112 +265,95 @@
     <t>刘宇泰</t>
   </si>
   <si>
-    <t>王韵清</t>
-  </si>
-  <si>
-    <t>共计16日提交</t>
-  </si>
-  <si>
-    <t>linux命令功能很丰富，仍旧需要加强学习。git目前在工作中使用没有障碍。</t>
-  </si>
-  <si>
-    <t>之前有一定的c++基础，对c++11/14的新特性学习起来仍旧有一定难度，目前还在加强学习。</t>
-  </si>
-  <si>
-    <t>了解了ceph 的原理，实践了部署，学习了部分ceph和rbd命令。</t>
-  </si>
-  <si>
-    <t>池的概念不是很清楚，希望老师可以进一步讲解。</t>
-  </si>
-  <si>
-    <t>建议c++课程添加一些基础课程。</t>
-  </si>
-  <si>
-    <t>屈卓</t>
-  </si>
-  <si>
-    <t>文件存储组</t>
-  </si>
-  <si>
-    <t>冯建奎</t>
-  </si>
-  <si>
-    <t>闵瑞</t>
-  </si>
-  <si>
-    <t>许舒宇</t>
-  </si>
-  <si>
-    <t>云物理主机组</t>
-  </si>
-  <si>
-    <t>陶锐哲</t>
-  </si>
-  <si>
-    <t>共计17日提交</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2-</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>3小时</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>全部完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>能够掌握基本操作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>全部完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>java</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>实验楼上课程比较笼统，练习不多，需要进一步强化练习</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无免费课</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>大部分为知识点，主要是概念的学习，应当多些动手操作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王韵清</t>
+  </si>
+  <si>
+    <t>共计16日提交</t>
+  </si>
+  <si>
+    <t>linux命令功能很丰富，仍旧需要加强学习。git目前在工作中使用没有障碍。</t>
+  </si>
+  <si>
+    <t>之前有一定的c++基础，对c++11/14的新特性学习起来仍旧有一定难度，目前还在加强学习。</t>
+  </si>
+  <si>
+    <t>了解了ceph 的原理，实践了部署，学习了部分ceph和rbd命令。</t>
+  </si>
+  <si>
+    <t>池的概念不是很清楚，希望老师可以进一步讲解。</t>
+  </si>
+  <si>
+    <t>建议c++课程添加一些基础课程。</t>
+  </si>
+  <si>
+    <t>屈卓</t>
+  </si>
+  <si>
+    <t>文件存储组</t>
+  </si>
+  <si>
+    <t>冯建奎</t>
+  </si>
+  <si>
+    <t>C++语言基础已完成</t>
+  </si>
+  <si>
+    <t>初步学习C++,会遇到很多内容可能理解的不对，需要多多练习验证</t>
+  </si>
+  <si>
+    <t>闵瑞</t>
+  </si>
+  <si>
+    <t>许舒宇</t>
+  </si>
+  <si>
+    <t>云物理主机组</t>
+  </si>
+  <si>
+    <t>陶锐哲</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="General;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="General;"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,14 +384,20 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -426,9 +410,153 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -441,31 +569,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -490,8 +595,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -553,31 +844,285 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -589,78 +1134,98 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="52">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 13" xfId="2"/>
-    <cellStyle name="常规 2 2" xfId="1"/>
-    <cellStyle name="常规_人力资源月报200911" xfId="3"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="常规 2 2" xfId="44"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
+    <cellStyle name="常规 13" xfId="50"/>
+    <cellStyle name="常规_人力资源月报200911" xfId="51"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -947,752 +1512,767 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="J8" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q12" sqref="Q12"/>
+      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
-    <col min="4" max="5" width="11.77734375" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" style="1" customWidth="1"/>
-    <col min="8" max="9" width="20.44140625" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="16.4444444444444" customWidth="1"/>
+    <col min="4" max="5" width="11.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="11.8888888888889" customWidth="1"/>
+    <col min="7" max="7" width="11.8888888888889" style="1" customWidth="1"/>
+    <col min="8" max="9" width="20.4444444444444" customWidth="1"/>
+    <col min="10" max="10" width="13.6666666666667" customWidth="1"/>
+    <col min="11" max="11" width="11.8888888888889" style="1" customWidth="1"/>
     <col min="12" max="13" width="19" customWidth="1"/>
-    <col min="14" max="14" width="38.88671875" customWidth="1"/>
-    <col min="15" max="15" width="11.88671875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.77734375" customWidth="1"/>
-    <col min="17" max="17" width="20.109375" customWidth="1"/>
-    <col min="18" max="18" width="20.77734375" customWidth="1"/>
+    <col min="14" max="14" width="38.8888888888889" customWidth="1"/>
+    <col min="15" max="15" width="11.8888888888889" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7777777777778" customWidth="1"/>
+    <col min="17" max="17" width="20.1111111111111" customWidth="1"/>
+    <col min="18" max="18" width="20.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="59.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+    <row r="1" ht="59.25" customHeight="1"/>
+    <row r="2" ht="24" customHeight="1" spans="1:18">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="25" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="3" t="s">
+    <row r="3" ht="27" customHeight="1" spans="1:18">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="18" t="s">
+      <c r="Q3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="20"/>
+      <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" ht="18.75" customHeight="1" spans="1:18">
+      <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="7" t="s">
+      <c r="G4" s="12"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="16" t="s">
+      <c r="K4" s="12"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="8"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="17"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="22"/>
     </row>
-    <row r="5" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+    <row r="5" ht="18.75" customHeight="1" spans="1:18">
+      <c r="A5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="7" t="s">
+      <c r="G5" s="12"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="16" t="s">
+      <c r="K5" s="12"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="8"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="17"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="22"/>
     </row>
-    <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="18.75" customHeight="1" spans="1:18">
       <c r="A6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="7" t="s">
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="16" t="s">
+      <c r="K6" s="12"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="O6" s="8"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="17"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="22"/>
     </row>
-    <row r="7" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+    <row r="7" ht="18.75" customHeight="1" spans="1:18">
+      <c r="A7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="7" t="s">
+      <c r="G7" s="12"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="16" t="s">
+      <c r="K7" s="12"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="8"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="17"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="22"/>
     </row>
-    <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+    <row r="8" ht="18.75" customHeight="1" spans="1:18">
+      <c r="A8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="M8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="N8" s="16" t="s">
+      <c r="N8" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O8" s="8" t="s">
+      <c r="O8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="P8" s="17" t="s">
+      <c r="P8" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="Q8" s="19" t="s">
+      <c r="Q8" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="R8" s="17" t="s">
+      <c r="R8" s="22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+    <row r="9" ht="18.75" customHeight="1" spans="1:18">
+      <c r="A9" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="7" t="s">
+      <c r="G9" s="12"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="16" t="s">
+      <c r="K9" s="12"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O9" s="8"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="17"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="22"/>
     </row>
-    <row r="10" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" ht="18.75" customHeight="1" spans="1:18">
       <c r="A10" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="L10" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="M10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="N10" s="16" t="s">
+      <c r="N10" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O10" s="8" t="s">
+      <c r="O10" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="17" t="s">
+      <c r="P10" s="22"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="22" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+    <row r="11" ht="18.75" customHeight="1" spans="1:18">
+      <c r="A11" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="N11" s="16" t="s">
+      <c r="N11" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O11" s="8" t="s">
+      <c r="O11" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="17" t="s">
+      <c r="P11" s="22"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+    <row r="12" ht="18.75" customHeight="1" spans="1:18">
+      <c r="A12" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7" t="s">
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="7" t="s">
+      <c r="G12" s="12"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="16" t="s">
+      <c r="K12" s="12"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="O12" s="8"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="17"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="22"/>
     </row>
-    <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+    <row r="13" ht="18.75" customHeight="1" spans="1:18">
+      <c r="A13" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O13" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" ht="18.75" customHeight="1" spans="1:18">
+      <c r="A14" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="R14" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" ht="18.75" customHeight="1" spans="1:18">
+      <c r="A15" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="12"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O15" s="12"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="22"/>
+    </row>
+    <row r="16" ht="18.75" customHeight="1" spans="1:18">
+      <c r="A16" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="L16" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="M16" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="N16" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" ht="18.75" customHeight="1" spans="1:18">
+      <c r="A17" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" s="28" t="s">
+      <c r="G17" s="12"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="12"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O17" s="12"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="22"/>
+    </row>
+    <row r="18" ht="18.75" customHeight="1" spans="1:18">
+      <c r="A18" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="I13" s="28" t="s">
+      <c r="B18" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="J13" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="K13" s="27" t="s">
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O18" s="12"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="22"/>
+    </row>
+    <row r="19" ht="18.75" customHeight="1" spans="1:18">
+      <c r="A19" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="L13" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="M13" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="N13" s="16" t="s">
+      <c r="B19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" s="12"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="O13" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="M14" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="N14" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="P14" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q14" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="R14" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" s="8"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="O15" s="8"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="17"/>
-    </row>
-    <row r="16" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" s="8"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="O16" s="8"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="17"/>
-    </row>
-    <row r="17" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" s="8"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="O17" s="8"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="17"/>
-    </row>
-    <row r="18" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K18" s="8"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="O18" s="8"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="17"/>
-    </row>
-    <row r="19" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K19" s="8"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="O19" s="8"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="17"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:R19"/>
+  <autoFilter ref="A3:R19">
+    <extLst/>
+  </autoFilter>
   <mergeCells count="7">
-    <mergeCell ref="R2:R3"/>
     <mergeCell ref="F2:Q2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
+    <mergeCell ref="R2:R3"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/19届校招员工岗前培训阶段汇总-二处.xlsx
+++ b/19届校招员工岗前培训阶段汇总-二处.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\rd2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A517D96B-BFB9-43CA-829C-B1AE5D2B7C6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8484"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="8484" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,12 +23,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0">
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -46,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -68,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -95,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="83">
   <si>
     <t>姓名</t>
   </si>
@@ -341,19 +347,43 @@
   <si>
     <t>陶锐哲</t>
   </si>
+  <si>
+    <t>还差四章</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ceph：基本原理、部署、模块、接口功能/openstack相关</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ceph无免费课 </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>共计13日提交</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令行不熟练，需要在生产环境中进一步实践</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>实践还是太少了，很多时候不知道该怎么办</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="General;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="General;"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,153 +440,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -569,8 +455,23 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -595,194 +496,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -844,285 +559,31 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1140,13 +601,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1162,70 +623,56 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="52">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="常规 2 2" xfId="44"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
-    <cellStyle name="常规 13" xfId="50"/>
-    <cellStyle name="常规_人力资源月报200911" xfId="51"/>
+    <cellStyle name="常规 13" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="常规 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="常规_人力资源月报200911" xfId="3" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1512,767 +959,782 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="J8" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
+      <selection pane="bottomRight" activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="16.4444444444444" customWidth="1"/>
-    <col min="4" max="5" width="11.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="11.8888888888889" customWidth="1"/>
-    <col min="7" max="7" width="11.8888888888889" style="1" customWidth="1"/>
-    <col min="8" max="9" width="20.4444444444444" customWidth="1"/>
-    <col min="10" max="10" width="13.6666666666667" customWidth="1"/>
-    <col min="11" max="11" width="11.8888888888889" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="5" width="11.77734375" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" style="1" customWidth="1"/>
+    <col min="8" max="9" width="20.44140625" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" style="1" customWidth="1"/>
     <col min="12" max="13" width="19" customWidth="1"/>
-    <col min="14" max="14" width="38.8888888888889" customWidth="1"/>
-    <col min="15" max="15" width="11.8888888888889" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7777777777778" customWidth="1"/>
-    <col min="17" max="17" width="20.1111111111111" customWidth="1"/>
-    <col min="18" max="18" width="20.7777777777778" customWidth="1"/>
+    <col min="14" max="14" width="38.88671875" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.77734375" customWidth="1"/>
+    <col min="17" max="17" width="20.109375" customWidth="1"/>
+    <col min="18" max="18" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="59.25" customHeight="1"/>
-    <row r="2" ht="24" customHeight="1" spans="1:18">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:18" ht="59.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="8" t="s">
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="28" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="27" customHeight="1" spans="1:18">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7" t="s">
+    <row r="3" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="24" t="s">
+      <c r="Q3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="4"/>
+      <c r="R3" s="23"/>
     </row>
-    <row r="4" ht="18.75" customHeight="1" spans="1:18">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="11" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="21" t="s">
+      <c r="K4" s="8"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="12"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="22"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="18"/>
     </row>
-    <row r="5" ht="18.75" customHeight="1" spans="1:18">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="11" t="s">
+      <c r="G5" s="8"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="21" t="s">
+      <c r="K5" s="8"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="12"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="22"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="18"/>
     </row>
-    <row r="6" ht="18.75" customHeight="1" spans="1:18">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="11" t="s">
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="21" t="s">
+      <c r="K6" s="8"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="O6" s="12"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="22"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="18"/>
     </row>
-    <row r="7" ht="18.75" customHeight="1" spans="1:18">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="11" t="s">
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="21" t="s">
+      <c r="K7" s="8"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="12"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="22"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="18"/>
     </row>
-    <row r="8" ht="18.75" customHeight="1" spans="1:18">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="L8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="13" t="s">
+      <c r="M8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="N8" s="21" t="s">
+      <c r="N8" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="O8" s="12" t="s">
+      <c r="O8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P8" s="22" t="s">
+      <c r="P8" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="Q8" s="25" t="s">
+      <c r="Q8" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="R8" s="22" t="s">
+      <c r="R8" s="18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" ht="18.75" customHeight="1" spans="1:18">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="11" t="s">
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="21" t="s">
+      <c r="K9" s="8"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="O9" s="12"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="22"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="18"/>
     </row>
-    <row r="10" ht="18.75" customHeight="1" spans="1:18">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="M10" s="13" t="s">
+      <c r="M10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="N10" s="21" t="s">
+      <c r="N10" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="O10" s="12" t="s">
+      <c r="O10" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="22" t="s">
+      <c r="P10" s="18"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" ht="18.75" customHeight="1" spans="1:18">
-      <c r="A11" s="16" t="s">
+    <row r="11" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="L11" s="13" t="s">
+      <c r="L11" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="M11" s="13" t="s">
+      <c r="M11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="N11" s="21" t="s">
+      <c r="N11" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="O11" s="12" t="s">
+      <c r="O11" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="22" t="s">
+      <c r="P11" s="18"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" ht="18.75" customHeight="1" spans="1:18">
-      <c r="A12" s="16" t="s">
+    <row r="12" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11" t="s">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="11" t="s">
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="21" t="s">
+      <c r="K12" s="8"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="O12" s="12"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="22"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="18"/>
     </row>
-    <row r="13" ht="18.75" customHeight="1" spans="1:18">
-      <c r="A13" s="17" t="s">
+    <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="H13" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="I13" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="23" t="s">
+      <c r="J13" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="K13" s="19" t="s">
+      <c r="K13" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L13" s="20" t="s">
+      <c r="L13" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="M13" s="20" t="s">
+      <c r="M13" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="N13" s="21" t="s">
+      <c r="N13" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="O13" s="19" t="s">
+      <c r="O13" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="26" t="s">
+      <c r="P13" s="18"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="22" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" ht="18.75" customHeight="1" spans="1:18">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="I14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="K14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L14" s="13" t="s">
+      <c r="L14" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="M14" s="13" t="s">
+      <c r="M14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="N14" s="21" t="s">
+      <c r="N14" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="O14" s="12" t="s">
+      <c r="O14" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="P14" s="12" t="s">
+      <c r="P14" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="Q14" s="12" t="s">
+      <c r="Q14" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="R14" s="12" t="s">
+      <c r="R14" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" ht="18.75" customHeight="1" spans="1:18">
-      <c r="A15" s="16" t="s">
+    <row r="15" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11" t="s">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="11" t="s">
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="12"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="21" t="s">
+      <c r="K15" s="8"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="O15" s="12"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="22"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="18"/>
     </row>
-    <row r="16" ht="18.75" customHeight="1" spans="1:18">
-      <c r="A16" s="16" t="s">
+    <row r="16" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11" t="s">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13" t="s">
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="K16" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="L16" s="13" t="s">
+      <c r="L16" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="M16" s="13" t="s">
+      <c r="M16" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="N16" s="21" t="s">
+      <c r="N16" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="O16" s="12" t="s">
+      <c r="O16" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="22" t="s">
+      <c r="P16" s="18"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" ht="18.75" customHeight="1" spans="1:18">
-      <c r="A17" s="16" t="s">
+    <row r="17" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11" t="s">
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="11" t="s">
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="12"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="21" t="s">
+      <c r="K17" s="8"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="O17" s="12"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="22"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="18"/>
     </row>
-    <row r="18" ht="18.75" customHeight="1" spans="1:18">
-      <c r="A18" s="16" t="s">
+    <row r="18" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="11" t="s">
+      <c r="D18" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="11" t="s">
+      <c r="G18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K18" s="12"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="21" t="s">
+      <c r="K18" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="L18" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="M18" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="N18" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="O18" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="18"/>
+    </row>
+    <row r="19" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" s="8"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="O18" s="12"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="22"/>
-    </row>
-    <row r="19" ht="18.75" customHeight="1" spans="1:18">
-      <c r="A19" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K19" s="12"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="O19" s="12"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="22"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:R19">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A3:R19" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="7">
+    <mergeCell ref="R2:R3"/>
     <mergeCell ref="F2:Q2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="R2:R3"/>
   </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/19届校招员工岗前培训阶段汇总-二处.xlsx
+++ b/19届校招员工岗前培训阶段汇总-二处.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\rd2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A517D96B-BFB9-43CA-829C-B1AE5D2B7C6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDF3E97-2EA2-4624-A6C4-3011948F3809}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="8484" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,15 +364,15 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>共计13日提交</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>命令行不熟练，需要在生产环境中进一步实践</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>实践还是太少了，很多时候不知道该怎么办</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>共计14日提交</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -381,7 +381,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="General;"/>
+    <numFmt numFmtId="176" formatCode="General;"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -601,10 +601,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -628,6 +628,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -641,21 +656,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -971,7 +971,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M18" sqref="M18"/>
+      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -994,45 +994,45 @@
   <sheetData>
     <row r="1" spans="1:18" ht="59.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="28" t="s">
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="27" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1069,7 +1069,7 @@
       <c r="Q3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="23"/>
+      <c r="R3" s="28"/>
     </row>
     <row r="4" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1649,8 +1649,8 @@
       <c r="C18" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="32" t="s">
-        <v>80</v>
+      <c r="D18" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>25</v>
@@ -1661,28 +1661,28 @@
       <c r="G18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="I18" s="30" t="s">
+      <c r="H18" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" s="24" t="s">
         <v>77</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K18" s="29" t="s">
+      <c r="K18" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="L18" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="M18" s="30" t="s">
+      <c r="L18" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="M18" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="N18" s="31" t="s">
+      <c r="N18" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="O18" s="29" t="s">
+      <c r="O18" s="23" t="s">
         <v>79</v>
       </c>
       <c r="P18" s="18"/>

--- a/19届校招员工岗前培训阶段汇总-二处.xlsx
+++ b/19届校招员工岗前培训阶段汇总-二处.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\rd2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangyunqing\Documents\train\rd2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDF3E97-2EA2-4624-A6C4-3011948F3809}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="8484" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1965" yWindow="0" windowWidth="21000" windowHeight="8490"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,12 +22,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="G3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="H3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="I3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -101,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="85">
   <si>
     <t>姓名</t>
   </si>
@@ -375,11 +374,17 @@
     <t>共计14日提交</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>仍需深入学习</t>
+  </si>
+  <si>
+    <t>需要加强学习，消化理解</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="General;"/>
   </numFmts>
@@ -661,9 +666,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 13" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="常规 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="常规_人力资源月报200911" xfId="3" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="常规 13" xfId="2"/>
+    <cellStyle name="常规 2 2" xfId="1"/>
+    <cellStyle name="常规_人力资源月报200911" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -964,36 +969,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
+      <selection pane="bottomRight" activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
-    <col min="4" max="5" width="11.77734375" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" style="1" customWidth="1"/>
-    <col min="8" max="9" width="20.44140625" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="5" width="11.75" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="1" customWidth="1"/>
+    <col min="8" max="9" width="20.5" customWidth="1"/>
+    <col min="10" max="10" width="13.625" customWidth="1"/>
+    <col min="11" max="11" width="11.875" style="1" customWidth="1"/>
     <col min="12" max="13" width="19" customWidth="1"/>
-    <col min="14" max="14" width="38.88671875" customWidth="1"/>
-    <col min="15" max="15" width="11.88671875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.77734375" customWidth="1"/>
-    <col min="17" max="17" width="20.109375" customWidth="1"/>
-    <col min="18" max="18" width="20.77734375" customWidth="1"/>
+    <col min="14" max="14" width="38.875" customWidth="1"/>
+    <col min="15" max="15" width="11.875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.75" customWidth="1"/>
+    <col min="17" max="17" width="20.125" customWidth="1"/>
+    <col min="18" max="18" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="59.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="59.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -1027,7 +1032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="30"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -1071,7 +1076,7 @@
       </c>
       <c r="R3" s="28"/>
     </row>
-    <row r="4" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -1103,7 +1108,7 @@
       <c r="Q4" s="21"/>
       <c r="R4" s="18"/>
     </row>
-    <row r="5" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>19</v>
       </c>
@@ -1135,7 +1140,7 @@
       <c r="Q5" s="21"/>
       <c r="R5" s="18"/>
     </row>
-    <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
@@ -1167,7 +1172,7 @@
       <c r="Q6" s="21"/>
       <c r="R6" s="18"/>
     </row>
-    <row r="7" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
         <v>21</v>
       </c>
@@ -1199,7 +1204,7 @@
       <c r="Q7" s="21"/>
       <c r="R7" s="18"/>
     </row>
-    <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
         <v>22</v>
       </c>
@@ -1255,7 +1260,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
         <v>36</v>
       </c>
@@ -1287,7 +1292,7 @@
       <c r="Q9" s="21"/>
       <c r="R9" s="18"/>
     </row>
-    <row r="10" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
         <v>37</v>
       </c>
@@ -1339,7 +1344,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12" t="s">
         <v>45</v>
       </c>
@@ -1391,7 +1396,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12" t="s">
         <v>53</v>
       </c>
@@ -1423,7 +1428,7 @@
       <c r="Q12" s="21"/>
       <c r="R12" s="18"/>
     </row>
-    <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="13" t="s">
         <v>55</v>
       </c>
@@ -1475,7 +1480,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
         <v>60</v>
       </c>
@@ -1531,7 +1536,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="12" t="s">
         <v>67</v>
       </c>
@@ -1541,29 +1546,47 @@
       <c r="C15" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
       <c r="F15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="G15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" t="s">
+        <v>41</v>
+      </c>
       <c r="J15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="8"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
+      <c r="K15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" t="s">
+        <v>84</v>
+      </c>
+      <c r="M15" t="s">
+        <v>41</v>
+      </c>
       <c r="N15" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="O15" s="8"/>
+      <c r="O15" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="P15" s="18"/>
       <c r="Q15" s="21"/>
       <c r="R15" s="18"/>
     </row>
-    <row r="16" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="12" t="s">
         <v>69</v>
       </c>
@@ -1607,7 +1630,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="12" t="s">
         <v>72</v>
       </c>
@@ -1639,7 +1662,7 @@
       <c r="Q17" s="21"/>
       <c r="R17" s="18"/>
     </row>
-    <row r="18" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="12" t="s">
         <v>73</v>
       </c>
@@ -1689,7 +1712,7 @@
       <c r="Q18" s="21"/>
       <c r="R18" s="18"/>
     </row>
-    <row r="19" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="12" t="s">
         <v>75</v>
       </c>
@@ -1722,7 +1745,7 @@
       <c r="R19" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:R19" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:R19"/>
   <mergeCells count="7">
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="F2:Q2"/>

--- a/19届校招员工岗前培训阶段汇总-二处.xlsx
+++ b/19届校招员工岗前培训阶段汇总-二处.xlsx
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="102">
   <si>
     <t>姓名</t>
   </si>
@@ -344,9 +344,6 @@
     <t>云物理主机组</t>
   </si>
   <si>
-    <t>陶锐哲</t>
-  </si>
-  <si>
     <t>还差四章</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -379,6 +376,148 @@
   </si>
   <si>
     <t>需要加强学习，消化理解</t>
+  </si>
+  <si>
+    <t>陶锐哲</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发二处</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>云物理主机组</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>共计19日提交</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2-3小时</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linux &amp; git</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Linux课程已完成5章待完成12章</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.通过前面这些课程，了解到Linux系统给我们提供了丰富的可定制化的体验，例如从网上查阅的一些有趣的小程序。但是其本质是固定的，例如FHS规范就将Linux的文件系统进行人为规定，所以熟悉之后能够极大增加工作效率。2.Linux系统的优点很多，目前觉得最重要的优点就是语法简练，模式固定。最大的缺点是对于初学者不友好。</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在该阶段过程中有一些小问题：1.为什么touch创建空白文件不会覆盖同名文件？那同名文件如何记录在磁盘。2.mkdir -p 创建多级目录，为什么ls命令无法显示子目录存在？</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>java</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全部完成</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1. 之前比较多的用到C#语言，虽然C#的语法、关键字、程序结构都大量继承于Java语言，导致二者有很多相似的地方。但是突然转换到Java语言，还是让我有点发怵。2. 在经过所有Java课程的学习之后，我深刻认识到所有语言都是相通的。就以泛型List类为例，在C#语言中也大量使用，且各方法也都大致相通。3. 编程语言的学习，还是需要多练多看，日常看优秀代码，有时间就练练手，然后学会做记录也很重要，供我以后进行总结归纳。</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暂无</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>ceph：基本原理、部署、模块、接口功能/openstack相关</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无免费课</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>尚未了解相关方面</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前没有做到具体的项目，感觉在学习知识点的同时，能够利用所学东西有目的性的去完成项目，这样才能让自己记的更加牢固。</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -388,7 +527,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="General;"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,8 +614,33 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -501,8 +665,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -564,6 +734,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -573,7 +758,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -662,6 +847,36 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -970,16 +1185,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:AA19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L34" sqref="L34"/>
+      <selection pane="bottomRight" activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="12.75" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
@@ -997,8 +1212,8 @@
     <col min="18" max="18" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="59.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="59.25" customHeight="1"/>
+    <row r="2" spans="1:18" ht="24" customHeight="1">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -1032,7 +1247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" ht="27" customHeight="1">
       <c r="A3" s="30"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -1076,7 +1291,7 @@
       </c>
       <c r="R3" s="28"/>
     </row>
-    <row r="4" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="18.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -1108,7 +1323,7 @@
       <c r="Q4" s="21"/>
       <c r="R4" s="18"/>
     </row>
-    <row r="5" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" ht="18.75" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>19</v>
       </c>
@@ -1140,7 +1355,7 @@
       <c r="Q5" s="21"/>
       <c r="R5" s="18"/>
     </row>
-    <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" ht="18.75" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
@@ -1172,7 +1387,7 @@
       <c r="Q6" s="21"/>
       <c r="R6" s="18"/>
     </row>
-    <row r="7" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" ht="18.75" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>21</v>
       </c>
@@ -1204,7 +1419,7 @@
       <c r="Q7" s="21"/>
       <c r="R7" s="18"/>
     </row>
-    <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" ht="18.75" customHeight="1">
       <c r="A8" s="9" t="s">
         <v>22</v>
       </c>
@@ -1260,7 +1475,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" ht="18.75" customHeight="1">
       <c r="A9" s="11" t="s">
         <v>36</v>
       </c>
@@ -1292,7 +1507,7 @@
       <c r="Q9" s="21"/>
       <c r="R9" s="18"/>
     </row>
-    <row r="10" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" ht="18.75" customHeight="1">
       <c r="A10" s="8" t="s">
         <v>37</v>
       </c>
@@ -1344,7 +1559,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" ht="18.75" customHeight="1">
       <c r="A11" s="12" t="s">
         <v>45</v>
       </c>
@@ -1396,7 +1611,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" ht="18.75" customHeight="1">
       <c r="A12" s="12" t="s">
         <v>53</v>
       </c>
@@ -1428,7 +1643,7 @@
       <c r="Q12" s="21"/>
       <c r="R12" s="18"/>
     </row>
-    <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" ht="18.75" customHeight="1">
       <c r="A13" s="13" t="s">
         <v>55</v>
       </c>
@@ -1480,7 +1695,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" ht="18.75" customHeight="1">
       <c r="A14" s="8" t="s">
         <v>60</v>
       </c>
@@ -1536,7 +1751,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" ht="18.75" customHeight="1">
       <c r="A15" s="12" t="s">
         <v>67</v>
       </c>
@@ -1559,7 +1774,7 @@
         <v>26</v>
       </c>
       <c r="H15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I15" t="s">
         <v>41</v>
@@ -1571,7 +1786,7 @@
         <v>26</v>
       </c>
       <c r="L15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M15" t="s">
         <v>41</v>
@@ -1586,7 +1801,7 @@
       <c r="Q15" s="21"/>
       <c r="R15" s="18"/>
     </row>
-    <row r="16" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" ht="18.75" customHeight="1">
       <c r="A16" s="12" t="s">
         <v>69</v>
       </c>
@@ -1630,7 +1845,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:27" ht="18.75" customHeight="1">
       <c r="A17" s="12" t="s">
         <v>72</v>
       </c>
@@ -1662,7 +1877,7 @@
       <c r="Q17" s="21"/>
       <c r="R17" s="18"/>
     </row>
-    <row r="18" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:27" ht="18.75" customHeight="1">
       <c r="A18" s="12" t="s">
         <v>73</v>
       </c>
@@ -1673,7 +1888,7 @@
         <v>74</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>25</v>
@@ -1685,64 +1900,97 @@
         <v>26</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>29</v>
       </c>
       <c r="K18" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="L18" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="M18" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="L18" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="M18" s="24" t="s">
+      <c r="N18" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="N18" s="25" t="s">
+      <c r="O18" s="23" t="s">
         <v>78</v>
-      </c>
-      <c r="O18" s="23" t="s">
-        <v>79</v>
       </c>
       <c r="P18" s="18"/>
       <c r="Q18" s="21"/>
       <c r="R18" s="18"/>
     </row>
-    <row r="19" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K19" s="8"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="O19" s="8"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="18"/>
+    <row r="19" spans="1:27" s="42" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A19" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="J19" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="K19" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="L19" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="M19" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="N19" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="O19" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="P19" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q19" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="R19" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="S19" s="41"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="41"/>
+      <c r="V19" s="41"/>
+      <c r="W19" s="41"/>
+      <c r="X19" s="41"/>
+      <c r="Y19" s="41"/>
+      <c r="Z19" s="41"/>
+      <c r="AA19" s="41"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:R19"/>

--- a/19届校招员工岗前培训阶段汇总-二处.xlsx
+++ b/19届校招员工岗前培训阶段汇总-二处.xlsx
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="112">
   <si>
     <t>姓名</t>
   </si>
@@ -518,6 +518,37 @@
   <si>
     <t>目前没有做到具体的项目，感觉在学习知识点的同时，能够利用所学东西有目的性的去完成项目，这样才能让自己记的更加牢固。</t>
     <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>请假</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>20次</t>
+  </si>
+  <si>
+    <t>2-3h</t>
+  </si>
+  <si>
+    <t>全部完成，章节数：22章</t>
+  </si>
+  <si>
+    <t>Linux和Git作为最常用的系统和工具，在掌握基本用法规则的同时，要在实际工作中熟悉锻炼其使用方法。</t>
+  </si>
+  <si>
+    <t>尚未开始实验楼课程，在学习清华大学《基于LINUX的C++》基础课程，打牢语法基础再学习提高课程。</t>
+  </si>
+  <si>
+    <t>C++作为面向对象的编程语言，除语法规则外，更应该掌握程序设计方法与思想，多思考，多动手，在实战中提高解决问题的能力，完成从具象到抽象再到具象的思维能力转变。</t>
+  </si>
+  <si>
+    <t>数组和链表有什么区别，分别最常用在哪些场景中。</t>
+  </si>
+  <si>
+    <t>尚未开始</t>
+  </si>
+  <si>
+    <t>在培训基本技能的同时，结合实际项目锻炼编程能力与解决问题的能力。</t>
   </si>
 </sst>
 </file>
@@ -758,7 +789,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -877,6 +908,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1191,7 +1225,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A19" sqref="A19:XFD19"/>
+      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1301,27 +1335,47 @@
       <c r="C4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="F4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="G4" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
+      <c r="K4" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>109</v>
+      </c>
       <c r="N4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="8"/>
+      <c r="O4" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="P4" s="18"/>
       <c r="Q4" s="21"/>
-      <c r="R4" s="18"/>
+      <c r="R4" s="18" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="5" spans="1:18" ht="18.75" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -1397,27 +1451,51 @@
       <c r="C7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="D7" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>102</v>
+      </c>
       <c r="F7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
+      <c r="G7" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" s="43" t="s">
+        <v>102</v>
+      </c>
       <c r="J7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
+      <c r="K7" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="L7" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="M7" s="43" t="s">
+        <v>102</v>
+      </c>
       <c r="N7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="8"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="18"/>
+      <c r="O7" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="P7" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q7" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="R7" s="43" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="8" spans="1:18" ht="18.75" customHeight="1">
       <c r="A8" s="9" t="s">

--- a/19届校招员工岗前培训阶段汇总-二处.xlsx
+++ b/19届校招员工岗前培训阶段汇总-二处.xlsx
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="119">
   <si>
     <t>姓名</t>
   </si>
@@ -549,6 +549,27 @@
   </si>
   <si>
     <t>在培训基本技能的同时，结合实际项目锻炼编程能力与解决问题的能力。</t>
+  </si>
+  <si>
+    <t>共计21次提交</t>
+  </si>
+  <si>
+    <t>2小时</t>
+  </si>
+  <si>
+    <t>Linux课程已完成14个实验和4个挑战，剩余3个实验待完成。git课程未正式开始。</t>
+  </si>
+  <si>
+    <t>linux&amp;git操作系统对我来说比较陌生，所以重点学习linux相关课程，git系统在Linuxx学习结束后再开始学习。通过学习实验楼的课程和查阅相关书籍，对Linux有了基本的了解，逐渐熟悉linux操作环境，掌握基本的常用命令并能够在实验环境中使用。</t>
+  </si>
+  <si>
+    <t>未开始</t>
+  </si>
+  <si>
+    <t>学习并巩固c++基础内容</t>
+  </si>
+  <si>
+    <t>建议首先巩固基础，并加以实际操作和编程的练习。</t>
   </si>
 </sst>
 </file>
@@ -789,7 +810,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -911,6 +932,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1225,7 +1249,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1410,36 +1434,56 @@
       <c r="R5" s="18"/>
     </row>
     <row r="6" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7" t="s">
+      <c r="D6" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="7" t="s">
+      <c r="G6" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="17" t="s">
+      <c r="K6" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="O6" s="8"/>
+      <c r="O6" s="23" t="s">
+        <v>43</v>
+      </c>
       <c r="P6" s="18"/>
       <c r="Q6" s="21"/>
-      <c r="R6" s="18"/>
+      <c r="R6" s="23" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="7" spans="1:18" ht="18.75" customHeight="1">
       <c r="A7" s="9" t="s">

--- a/19届校招员工岗前培训阶段汇总-二处.xlsx
+++ b/19届校招员工岗前培训阶段汇总-二处.xlsx
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="130">
   <si>
     <t>姓名</t>
   </si>
@@ -571,6 +571,50 @@
   <si>
     <t>建议首先巩固基础，并加以实际操作和编程的练习。</t>
   </si>
+  <si>
+    <t>共计13日提交</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-3小时</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验五挑战一</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>还需要进一步学习linux，以及git的学习</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验三</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>c++14还是需要对进出进行掌握才能更加好的进行学习</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>无免费课</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>c++实验楼的课程比较深，对于没有基础的学者，需要先去查找基础资料，才能跟上实验楼的课程，而且会花费很多时间在查找资料上，而且这样也不能进行系统学习，知识点就很很杂，希望实验楼能够添加一些基础的系统性的课程。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -579,7 +623,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="General;"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -690,6 +734,14 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -810,7 +862,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -936,6 +988,8 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1246,10 +1300,10 @@
   <dimension ref="A1:AA19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6:XFD6"/>
+      <selection pane="bottomRight" activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1977,27 +2031,51 @@
       <c r="C17" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="D17" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="F17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="G17" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>123</v>
+      </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="8"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
+      <c r="K17" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="L17" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="M17" s="24" t="s">
+        <v>126</v>
+      </c>
       <c r="N17" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="O17" s="8"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="18"/>
+      <c r="O17" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="P17" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q17" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="R17" s="45" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="18" spans="1:27" ht="18.75" customHeight="1">
       <c r="A18" s="12" t="s">

--- a/19届校招员工岗前培训阶段汇总-二处.xlsx
+++ b/19届校招员工岗前培训阶段汇总-二处.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="0" windowWidth="21000" windowHeight="8490"/>
+    <workbookView xWindow="3930" yWindow="0" windowWidth="21000" windowHeight="8490"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -744,7 +744,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -772,6 +772,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,7 +868,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -934,6 +940,44 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="13" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -952,44 +996,21 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1053,7 +1074,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1088,7 +1109,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1300,10 +1321,10 @@
   <dimension ref="A1:AA19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N28" sqref="N28"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1326,45 +1347,45 @@
   <sheetData>
     <row r="1" spans="1:18" ht="59.25" customHeight="1"/>
     <row r="2" spans="1:18" ht="24" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="27" t="s">
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="41" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="27" customHeight="1">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
       <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1401,7 +1422,7 @@
       <c r="Q3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="28"/>
+      <c r="R3" s="42"/>
     </row>
     <row r="4" spans="1:18" ht="18.75" customHeight="1">
       <c r="A4" s="5" t="s">
@@ -1503,7 +1524,7 @@
       <c r="E6" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="38" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="23" t="s">
@@ -1515,7 +1536,7 @@
       <c r="I6" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="44" t="s">
+      <c r="J6" s="38" t="s">
         <v>17</v>
       </c>
       <c r="K6" s="23" t="s">
@@ -1549,49 +1570,49 @@
       <c r="C7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="37" t="s">
         <v>102</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="H7" s="43" t="s">
+      <c r="H7" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="I7" s="43" t="s">
+      <c r="I7" s="37" t="s">
         <v>102</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="43" t="s">
+      <c r="K7" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="L7" s="43" t="s">
+      <c r="L7" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="M7" s="43" t="s">
+      <c r="M7" s="37" t="s">
         <v>102</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="43" t="s">
+      <c r="O7" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="P7" s="43" t="s">
+      <c r="P7" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="Q7" s="43" t="s">
+      <c r="Q7" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="R7" s="43" t="s">
+      <c r="R7" s="37" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1787,37 +1808,37 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:18" s="53" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A12" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7" t="s">
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="7" t="s">
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="17" t="s">
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="O12" s="8"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="18"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="51"/>
     </row>
     <row r="13" spans="1:18" ht="18.75" customHeight="1">
       <c r="A13" s="13" t="s">
@@ -2067,13 +2088,13 @@
       <c r="O17" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="P17" s="45" t="s">
+      <c r="P17" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="Q17" s="46" t="s">
+      <c r="Q17" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="R17" s="45" t="s">
+      <c r="R17" s="39" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2127,70 +2148,70 @@
       <c r="Q18" s="21"/>
       <c r="R18" s="18"/>
     </row>
-    <row r="19" spans="1:27" s="42" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A19" s="33" t="s">
+    <row r="19" spans="1:27" s="36" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A19" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="36" t="s">
+      <c r="F19" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="37" t="s">
+      <c r="G19" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="H19" s="38" t="s">
+      <c r="H19" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="I19" s="39" t="s">
+      <c r="I19" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="J19" s="36" t="s">
+      <c r="J19" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="K19" s="38" t="s">
+      <c r="K19" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="L19" s="39" t="s">
+      <c r="L19" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="M19" s="38" t="s">
+      <c r="M19" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="N19" s="40" t="s">
+      <c r="N19" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="O19" s="38" t="s">
+      <c r="O19" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="P19" s="38" t="s">
+      <c r="P19" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="Q19" s="38" t="s">
+      <c r="Q19" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="R19" s="38" t="s">
+      <c r="R19" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="S19" s="41"/>
-      <c r="T19" s="41"/>
-      <c r="U19" s="41"/>
-      <c r="V19" s="41"/>
-      <c r="W19" s="41"/>
-      <c r="X19" s="41"/>
-      <c r="Y19" s="41"/>
-      <c r="Z19" s="41"/>
-      <c r="AA19" s="41"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="35"/>
+      <c r="Y19" s="35"/>
+      <c r="Z19" s="35"/>
+      <c r="AA19" s="35"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:R19"/>

--- a/19届校招员工岗前培训阶段汇总-二处.xlsx
+++ b/19届校招员工岗前培训阶段汇总-二处.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9825" yWindow="0" windowWidth="21000" windowHeight="8490"/>
+    <workbookView xWindow="11790" yWindow="0" windowWidth="21000" windowHeight="8490"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="137">
   <si>
     <t>姓名</t>
   </si>
@@ -623,6 +623,18 @@
   </si>
   <si>
     <t>需要多练习巩固</t>
+  </si>
+  <si>
+    <t>共计6次提交</t>
+  </si>
+  <si>
+    <t>Linux完成前完成9章，待完成8章，Git尚未开始</t>
+  </si>
+  <si>
+    <t>使用不够熟练，需要多练习</t>
+  </si>
+  <si>
+    <t>对c++有初步了解，仍然需要学习基础</t>
   </si>
 </sst>
 </file>
@@ -840,6 +852,22 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -858,22 +886,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1187,7 +1199,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1210,45 +1222,45 @@
   <sheetData>
     <row r="1" spans="1:18" ht="59.25" customHeight="1"/>
     <row r="2" spans="1:18" ht="24" customHeight="1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="12" t="s">
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="20" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="27" customHeight="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
       <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1285,7 +1297,7 @@
       <c r="Q3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="13"/>
+      <c r="R3" s="21"/>
     </row>
     <row r="4" spans="1:18" ht="18.75" customHeight="1">
       <c r="A4" s="7" t="s">
@@ -1349,24 +1361,42 @@
       <c r="C5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="F5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="G5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="J5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
+      <c r="K5" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="N5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="7"/>
+      <c r="O5" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
@@ -1423,7 +1453,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="25" customFormat="1" ht="18.75" customHeight="1">
+    <row r="7" spans="1:18" s="19" customFormat="1" ht="18.75" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
@@ -1671,37 +1701,37 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="24" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A12" s="18" t="s">
+    <row r="12" spans="1:18" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A12" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20" t="s">
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20" t="s">
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="21" t="s">
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="O12" s="20"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="22"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="16"/>
     </row>
     <row r="13" spans="1:18" ht="18.75" customHeight="1">
       <c r="A13" s="7" t="s">

--- a/19届校招员工岗前培训阶段汇总-二处.xlsx
+++ b/19届校招员工岗前培训阶段汇总-二处.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11790" yWindow="0" windowWidth="21000" windowHeight="8490"/>
+    <workbookView xWindow="13755" yWindow="0" windowWidth="21000" windowHeight="8490"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="144">
   <si>
     <t>姓名</t>
   </si>
@@ -635,6 +635,27 @@
   </si>
   <si>
     <t>对c++有初步了解，仍然需要学习基础</t>
+  </si>
+  <si>
+    <t>共提交18日</t>
+  </si>
+  <si>
+    <t>git部分剩余两章</t>
+  </si>
+  <si>
+    <t>git和linux的部分操作还不是还熟练，需要加强</t>
+  </si>
+  <si>
+    <t>spring以及后面的实例剩余部分内容</t>
+  </si>
+  <si>
+    <t>部分实验内容只有很少的实例，以及部分java内容讲解不是很深入详细。还需更多课程或书籍以及在实践中学习。</t>
+  </si>
+  <si>
+    <t>暂无免费</t>
+  </si>
+  <si>
+    <t>希望后续能有时间完成一些小项目，比如培训内容中的几个挑战，能对各个基础知识有一定应用，应该会对各个知识的使用有更好的效果。</t>
   </si>
 </sst>
 </file>
@@ -1199,7 +1220,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1575,27 +1596,51 @@
       <c r="C9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="F9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="G9" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="J9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
+      <c r="K9" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="N9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
+      <c r="O9" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="10" spans="1:18" ht="18.75" customHeight="1">
       <c r="A10" s="7" t="s">
